--- a/atividade-senac/atividades/CronogramaAulas.xlsx
+++ b/atividade-senac/atividades/CronogramaAulas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos-aula-senac\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8041AF-36EE-4142-A2C5-5369702D1F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="18648" tabRatio="480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="18645" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,9 +67,6 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>* Iniciar assunto sobre Orientação a Objetos em JAVA - 02 - ArrayList     * Passar exercicios com ArrayList - Video FIAP - Collections.</t>
-  </si>
-  <si>
     <t>Desenvolver e acabar exercicios de HTML e Iniciar Formularios se der tempo...</t>
   </si>
   <si>
@@ -88,12 +84,15 @@
   <si>
     <t>* Orientacao Objetos - Herança, Polimorfismo e Interface * Passar exercicios com Classes sobre Herança, Polimorfismo e Interface.    * Padroes de escrita de código</t>
   </si>
+  <si>
+    <t>Passar exercicios com manipulacao de String e metodos * Iniciar assunto sobre Orientação a Objetos em JAVA - 02 - ArrayList     * Passar exercicios com ArrayList - Video FIAP - Collections.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,25 +536,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="104.88671875" style="17" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="4"/>
-    <col min="6" max="21" width="9.109375" style="1"/>
-    <col min="22" max="22" width="9.109375" style="4"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="104.85546875" style="17" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="6" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="4"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="9" customFormat="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="7"/>
@@ -563,7 +562,7 @@
       <c r="E1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -588,7 +587,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="51.75">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -596,7 +595,7 @@
         <v>44802</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="2"/>
@@ -613,7 +612,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="34.5">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -622,7 +621,7 @@
         <v>44803</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="2"/>
@@ -639,7 +638,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -648,7 +647,7 @@
         <v>44804</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2"/>
@@ -665,7 +664,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="51.75">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -674,7 +673,7 @@
         <v>44805</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
@@ -691,7 +690,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -712,12 +711,12 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="2"/>
@@ -734,7 +733,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -754,7 +753,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="34.5">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -763,7 +762,7 @@
         <v>44809</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="2"/>
@@ -780,7 +779,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="51.75">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -789,7 +788,7 @@
         <v>44810</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="2"/>
@@ -806,7 +805,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -815,7 +814,7 @@
         <v>44811</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="2"/>
@@ -832,7 +831,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -856,7 +855,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -877,7 +876,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -898,7 +897,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
@@ -919,7 +918,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -943,7 +942,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -967,7 +966,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
@@ -991,7 +990,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1014,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="12" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1035,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1077,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1101,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1125,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1149,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1173,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1193,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1213,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
@@ -1234,7 +1233,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
@@ -1258,7 +1257,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1281,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="12" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1305,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="12" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1329,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="12" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1349,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1369,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +1389,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1409,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1429,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="12" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1449,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="12" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1469,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
@@ -1490,7 +1489,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="12" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1509,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="12" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1529,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="12" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1549,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1569,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="12" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1589,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="12" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1609,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="12" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1629,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1649,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="12" t="s">
         <v>9</v>
       </c>
@@ -1670,7 +1669,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="12" t="s">
         <v>3</v>
       </c>
